--- a/docs/数据报表定义.xlsx
+++ b/docs/数据报表定义.xlsx
@@ -1,26 +1,341 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="广告-地域投放报表-mongo" sheetId="2" r:id="rId1"/>
+    <sheet name="广告-网站报表-mongo" sheetId="3" r:id="rId2"/>
+    <sheet name="广告-设备报表-mongo" sheetId="4" r:id="rId3"/>
+    <sheet name="广告-媒体平台-mongo" sheetId="5" r:id="rId4"/>
+    <sheet name="广告-流量类型-mongo" sheetId="6" r:id="rId5"/>
+    <sheet name="广告-app报表-mongo" sheetId="7" r:id="rId6"/>
+    <sheet name="广告-受众报表-mongo" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="70">
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>properZone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clicks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曝光量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣消耗（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实消耗（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录的唯一识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否用于key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adx名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受众ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,19 +359,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +666,1441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>